--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P2">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q2">
-        <v>234.174494687441</v>
+        <v>234.4583076130859</v>
       </c>
       <c r="R2">
-        <v>2107.570452186969</v>
+        <v>2110.124768517773</v>
       </c>
       <c r="S2">
-        <v>0.6838147382317403</v>
+        <v>0.7677018672634894</v>
       </c>
       <c r="T2">
-        <v>0.6838147382317404</v>
+        <v>0.7677018672634895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N3">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q3">
-        <v>13.725461807662</v>
+        <v>19.91062330677311</v>
       </c>
       <c r="R3">
-        <v>123.529156268958</v>
+        <v>179.195609760958</v>
       </c>
       <c r="S3">
-        <v>0.04007982630919499</v>
+        <v>0.06519463032299283</v>
       </c>
       <c r="T3">
-        <v>0.04007982630919499</v>
+        <v>0.06519463032299284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>10.124457</v>
       </c>
       <c r="I4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J4">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P4">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q4">
         <v>21.41745745308633</v>
@@ -694,10 +694,10 @@
         <v>192.757117077777</v>
       </c>
       <c r="S4">
-        <v>0.06254128179680501</v>
+        <v>0.07012855396834325</v>
       </c>
       <c r="T4">
-        <v>0.06254128179680503</v>
+        <v>0.07012855396834325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N5">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q5">
-        <v>1.255322423912667</v>
+        <v>1.818809202704667</v>
       </c>
       <c r="R5">
-        <v>11.297901815214</v>
+        <v>16.369282824342</v>
       </c>
       <c r="S5">
-        <v>0.003665676639336893</v>
+        <v>0.005955443572580232</v>
       </c>
       <c r="T5">
-        <v>0.003665676639336893</v>
+        <v>0.005955443572580232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H6">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J6">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>19.038761</v>
       </c>
       <c r="O6">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P6">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q6">
-        <v>67.90059243458631</v>
+        <v>25.62176589053745</v>
       </c>
       <c r="R6">
-        <v>611.1053319112769</v>
+        <v>230.5958930148371</v>
       </c>
       <c r="S6">
-        <v>0.1982770408169771</v>
+        <v>0.08389499061476524</v>
       </c>
       <c r="T6">
-        <v>0.1982770408169772</v>
+        <v>0.08389499061476524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H7">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J7">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N7">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q7">
-        <v>3.979797156912666</v>
+        <v>2.175846675233556</v>
       </c>
       <c r="R7">
-        <v>35.81817441221399</v>
+        <v>19.582620077102</v>
       </c>
       <c r="S7">
-        <v>0.01162143620594567</v>
+        <v>0.007124514257828864</v>
       </c>
       <c r="T7">
-        <v>0.01162143620594567</v>
+        <v>0.007124514257828864</v>
       </c>
     </row>
   </sheetData>
